--- a/ВКР/Результаты.xlsx
+++ b/ВКР/Результаты.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Документы и прочее\Политех\4\4.2\ВКР\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E666233-AFF3-48AA-BC1E-087FB9007EDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9B0520-0010-4C48-9122-47EA94AC4189}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="50 на 50" sheetId="1" r:id="rId1"/>
+    <sheet name="Результаты" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
   <si>
     <t>Класс</t>
   </si>
@@ -39,15 +49,6 @@
     <t>train loss: 0.0000</t>
   </si>
   <si>
-    <t>train acc: 0.7696</t>
-  </si>
-  <si>
-    <t>test loss: 25628.7871</t>
-  </si>
-  <si>
-    <t>test acc: 0.5799</t>
-  </si>
-  <si>
     <t>Минимальные потери</t>
   </si>
   <si>
@@ -265,6 +266,45 @@
   </si>
   <si>
     <t>test loss: 37302.7383</t>
+  </si>
+  <si>
+    <t>test acc: 0.5690</t>
+  </si>
+  <si>
+    <t>train loss: 45.6023</t>
+  </si>
+  <si>
+    <t>train acc: 0.8333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>test loss: 33534.9727</t>
+  </si>
+  <si>
+    <t>train loss: 69.7750</t>
+  </si>
+  <si>
+    <t>train acc: 0.9889</t>
+  </si>
+  <si>
+    <t>test loss: 48132.4805</t>
+  </si>
+  <si>
+    <t>train acc: 0.8056</t>
+  </si>
+  <si>
+    <t>test loss: 52135.3203</t>
+  </si>
+  <si>
+    <t>train acc: 0.8611</t>
+  </si>
+  <si>
+    <t>test loss: 42294.6250</t>
+  </si>
+  <si>
+    <t>test acc: 0.5571</t>
   </si>
 </sst>
 </file>
@@ -434,6 +474,1658 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Результаты!$G$1:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результаты!$H$1:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.89724999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87052499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9456500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82907500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89792499999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4454-4C56-B49A-2081BCACCE4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="776743215"/>
+        <c:axId val="776746959"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="776743215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="776746959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="776746959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="776743215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Результаты!$G$1:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результаты!$I$1:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.57007500000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56377500000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56642499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57992500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57312500000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37FF-4A51-B4EC-FAB206EBF866}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="776724079"/>
+        <c:axId val="776732815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="776724079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="776732815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="776732815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="776724079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -495,6 +2187,83 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69585992-FE7F-4FF2-918D-1CA43B2DE7A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1EC9DE7-01ED-4E47-A491-4589AC4EED79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -763,10 +2532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,9 +2559,6 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>71</v>
-      </c>
       <c r="C1" s="1">
         <v>72</v>
       </c>
@@ -806,18 +2572,15 @@
         <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>63</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1">
         <v>166</v>
@@ -851,17 +2614,14 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>3</v>
@@ -870,13 +2630,13 @@
         <v>2</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>3</v>
@@ -887,118 +2647,109 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="L4" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="10" t="s">
-        <v>6</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1006,43 +2757,43 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>147</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1050,25 +2801,25 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1109,102 +2860,609 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="9"/>
+      <c r="I36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="E37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F37" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F38" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3736F78-AE09-4C65-85D5-C1451AD4CD2D}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="D1" s="1">
+        <v>25628.787100000001</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.57989999999999997</v>
+      </c>
+      <c r="G1" s="1">
+        <v>71</v>
+      </c>
+      <c r="H1">
+        <v>0.89724999999999999</v>
+      </c>
+      <c r="I1">
+        <v>0.57007500000000011</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
+        <v>86.209199999999996</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D2" s="1">
+        <v>23899.710899999998</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="G2" s="1">
         <v>72</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="10"/>
+      <c r="H2">
+        <v>0.87052499999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.56377500000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>349.97379999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>26715.839800000002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.56110000000000004</v>
+      </c>
+      <c r="G3" s="1">
+        <v>73</v>
+      </c>
+      <c r="H3">
+        <v>0.9456500000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.56642499999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>430.53120000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="D4" s="1">
+        <v>37302.738299999997</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.56430000000000002</v>
+      </c>
+      <c r="G4" s="1">
+        <v>74</v>
+      </c>
+      <c r="H4">
+        <v>0.82907500000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.57992500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>AVERAGE(B1:B4)</f>
+        <v>216.67855</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(C1:C4)</f>
+        <v>0.89724999999999999</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(D1:D4)</f>
+        <v>28386.769025000001</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(E1:E4)</f>
+        <v>0.57007500000000011</v>
+      </c>
+      <c r="G5" s="1">
+        <v>75</v>
+      </c>
+      <c r="H5">
+        <v>0.89792499999999997</v>
+      </c>
+      <c r="I5">
+        <v>0.57312500000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1258.7917</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.78210000000000002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>32043.468799999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>140.26050000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30560.238300000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.55620000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>374.14909999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.9667</v>
+      </c>
+      <c r="D9" s="1">
+        <v>38992.945299999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.53890000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>45.6023</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="D10" s="1">
+        <v>33534.972699999998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>AVERAGE(B7:B10)</f>
+        <v>454.70090000000005</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(C7:C10)</f>
+        <v>0.87052499999999999</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(D7:D10)</f>
+        <v>33782.906275000001</v>
+      </c>
+      <c r="E11">
+        <f>AVERAGE(E7:E10)</f>
+        <v>0.56377500000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5158.4268000000002</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45368.246099999997</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>385.9434</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41695.757799999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>30542.601600000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.53890000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>69.775000000000006</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.9889</v>
+      </c>
+      <c r="D16" s="1">
+        <v>48132.480499999998</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.56430000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>AVERAGE(B13:B16)</f>
+        <v>1403.5363</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(C13:C16)</f>
+        <v>0.9456500000000001</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(D13:D16)</f>
+        <v>41434.771500000003</v>
+      </c>
+      <c r="E17">
+        <f>AVERAGE(E13:E16)</f>
+        <v>0.56642499999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10124.6289</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="D19" s="1">
+        <v>60233.8125</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.58609999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="D20" s="1">
+        <v>35293.757799999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.58130000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1">
+        <v>419.88209999999998</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.93569999999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>29467.228500000001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.58330000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
+        <v>0.80559999999999998</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.80559999999999998</v>
+      </c>
+      <c r="D22" s="1">
+        <v>52135.320299999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>AVERAGE(B19:B22)</f>
+        <v>2636.4838250000003</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(C19:C22)</f>
+        <v>0.82907500000000001</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(D19:D22)</f>
+        <v>44282.529774999995</v>
+      </c>
+      <c r="E23">
+        <f>AVERAGE(E19:E22)</f>
+        <v>0.57992500000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="D25" s="1">
+        <v>20405.300800000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.62360000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="D26" s="1">
+        <v>26929.4863</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.55620000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1">
+        <v>14.992599999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="D27" s="1">
+        <v>41559.343800000002</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="D28" s="1">
+        <v>42294.625</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.55710000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>AVERAGE(B25:B28)</f>
+        <v>4.1727999999999996</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE(C25:C28)</f>
+        <v>0.89792499999999997</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(D25:D28)</f>
+        <v>32797.188974999997</v>
+      </c>
+      <c r="E29">
+        <f>AVERAGE(E25:E28)</f>
+        <v>0.57312500000000011</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
